--- a/Projects/SANOFIPH/Data/Template.xlsx
+++ b/Projects/SANOFIPH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,15 +18,17 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$4</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$5:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
@@ -37,10 +39,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,289 +55,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Tested Group</t>
-  </si>
-  <si>
-    <t>Template Group</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
-    <t>POSM Availability Primary</t>
-  </si>
-  <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>Product Availability Per SKU</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_POSM</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>Blocked Together Per Brand</t>
-  </si>
-  <si>
-    <t>Primary_Brand_Blocking</t>
-  </si>
-  <si>
-    <t>POSM Availability Secondary</t>
-  </si>
-  <si>
-    <t>Secondary Shelf</t>
-  </si>
-  <si>
-    <t>MSL Compliance</t>
-  </si>
-  <si>
-    <t>MSL</t>
-  </si>
-  <si>
-    <t>Perfect Store</t>
-  </si>
-  <si>
-    <t>Primary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Secondary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Perfect Store Compliance</t>
-  </si>
-  <si>
-    <t>Sum of KPIs in Group</t>
-  </si>
-  <si>
-    <t>store type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product EAN Code</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Retailer - MDC</t>
-  </si>
-  <si>
-    <t>Retailer - SSD</t>
-  </si>
-  <si>
-    <t>Retailer - RPI</t>
-  </si>
-  <si>
-    <t>Retailer - Watsons</t>
-  </si>
-  <si>
-    <t>Retailer - Independent Pharmacy</t>
-  </si>
-  <si>
-    <t>Buscopan Mono 120s</t>
-  </si>
-  <si>
-    <t>Buscopan</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Buscopan Mono 4s</t>
-  </si>
-  <si>
-    <t>Buscopan Plus 4s</t>
-  </si>
-  <si>
-    <t>Buscopan Venus 4s</t>
-  </si>
-  <si>
-    <t>Dulcolax Tablet 120s</t>
-  </si>
-  <si>
-    <t>4800292124103</t>
-  </si>
-  <si>
-    <t>Dulcolax</t>
-  </si>
-  <si>
-    <t>Digestive Health</t>
-  </si>
-  <si>
-    <t>Dulcolax 4s</t>
-  </si>
-  <si>
-    <t>Dulcolax SP Syrup</t>
-  </si>
-  <si>
-    <t>4800292124066</t>
-  </si>
-  <si>
-    <t>ESSENTIALE 300mg CAP BL 50's</t>
-  </si>
-  <si>
-    <t>Essentiale</t>
-  </si>
-  <si>
-    <t>Mucosolvan Pedia 60ml</t>
-  </si>
-  <si>
-    <t>Mucosolvan</t>
-  </si>
-  <si>
-    <t>Cough&amp;Cold</t>
-  </si>
-  <si>
-    <t>Mucosolvan Adult 60ml</t>
-  </si>
-  <si>
-    <t>Mucosolvan Retard Cap 50s</t>
-  </si>
-  <si>
-    <t>Mucosolvan Retard 5s</t>
-  </si>
-  <si>
-    <t>Pharmaton 8s</t>
-  </si>
-  <si>
-    <t>Pharmaton</t>
-  </si>
-  <si>
-    <t>Nutritional</t>
-  </si>
-  <si>
-    <t>Pharmaton 100s</t>
-  </si>
-  <si>
-    <t>4800292408012</t>
-  </si>
-  <si>
-    <t>MCWH</t>
-  </si>
-  <si>
-    <t>Traditonal Pharmacy</t>
-  </si>
-  <si>
-    <t>Shelf Location Compliance</t>
-  </si>
-  <si>
-    <t>NATURES OWN</t>
-  </si>
-  <si>
-    <t>ENERGY STRESS</t>
-  </si>
-  <si>
-    <t>OMEGA 3</t>
-  </si>
-  <si>
-    <t>Ignore empty</t>
-  </si>
-  <si>
-    <t>Buscopan Mono 4s,
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="89">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product EAN Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer - MDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer - SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer - RPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer - Watsons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer - Independent Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan Mono 120s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan Mono 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan Plus 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan Venus 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax Tablet 120s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800292124103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digestive Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax SP Syrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800292124066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSENTIALE 300mg CAP BL 50's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucosolvan Pedia 60ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucosolvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough&amp;Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucosolvan Adult 60ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucosolvan Retard Cap 50s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucosolvan Retard 5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton 8s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutritional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton 100s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800292408012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATURES OWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGY STRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMEGA 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan Mono 4s,
 Buscopan Plus 4s,
 Buscopan Venus 4s.</t>
   </si>
   <si>
-    <t>4800292122130
+    <t xml:space="preserve">4800292122130
 4800292120037
 4800292122499</t>
   </si>
   <si>
-    <t>Dulcolax 4s
+    <t xml:space="preserve">Dulcolax 4s
 Dulcolax SP Syrup</t>
   </si>
   <si>
-    <t>4800292124547
+    <t xml:space="preserve">4800292124547
 4800292124066</t>
   </si>
   <si>
-    <t>Mucosolvan Retard 5s,
+    <t xml:space="preserve">Mucosolvan Retard 5s,
 Mucosolvan Pedia 60ml,
 Mucosolvan Adult 60ml</t>
   </si>
   <si>
-    <t>4800292315129
+    <t xml:space="preserve">4800292315129
 4800292315013
 4800292315037</t>
   </si>
   <si>
-    <t>4800292408166</t>
-  </si>
-  <si>
-    <t>Shelf Frame_Buscopan</t>
-  </si>
-  <si>
-    <t>POSM_0001</t>
-  </si>
-  <si>
-    <t>Shelf Frame_Dulcolax</t>
-  </si>
-  <si>
-    <t>POSM_0002</t>
-  </si>
-  <si>
-    <t>Shelf Frame_Mucosolvan</t>
-  </si>
-  <si>
-    <t>POSM_0003</t>
-  </si>
-  <si>
-    <t>Shelf Frame_Pharmaton</t>
-  </si>
-  <si>
-    <t>POSM_0004</t>
-  </si>
-  <si>
-    <t>Shelf Talker_Buscopan</t>
-  </si>
-  <si>
-    <t>POSM_0005</t>
-  </si>
-  <si>
-    <t>Shelf Talker_Dulcolax</t>
-  </si>
-  <si>
-    <t>POSM_0006</t>
-  </si>
-  <si>
-    <t>Shelf Talker_Mucosolvan</t>
-  </si>
-  <si>
-    <t>POSM_0007</t>
-  </si>
-  <si>
-    <t>Shelf Talker_Pharmaton</t>
-  </si>
-  <si>
-    <t>POSM_0008</t>
+    <t xml:space="preserve">4800292408166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Frame_Buscopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Frame_Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Frame_Mucosolvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Frame_Pharmaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Talker_Buscopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Talker_Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Talker_Mucosolvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Talker_Pharmaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM_0008</t>
   </si>
 </sst>
 </file>
@@ -342,12 +339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -436,14 +433,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -460,14 +449,6 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -542,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -744,20 +725,6 @@
       <right style="medium"/>
       <top style="medium"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -909,7 +876,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1110,138 +1077,126 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="40" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="34" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="42" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1250,7 +1205,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1266,11 +1221,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1278,15 +1233,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="33" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1294,7 +1249,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1302,11 +1257,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1322,15 +1277,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1343,14 +1298,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="34" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1446,18 +1393,18 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1656,15 +1603,15 @@
   </sheetPr>
   <dimension ref="A1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
@@ -1672,7 +1619,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2317,17 +2264,17 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
@@ -2346,6 +2293,9 @@
         <v>24</v>
       </c>
       <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
@@ -2363,57 +2313,65 @@
       <c r="E2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="B3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="D3" s="53" t="n">
+        <v>9316090023906</v>
+      </c>
+      <c r="E3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="56" t="n">
-        <v>9316090023906</v>
-      </c>
-      <c r="E3" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="56" t="n">
+      <c r="D4" s="53" t="n">
         <v>9316090060901</v>
       </c>
-      <c r="E4" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="58" t="n">
+      <c r="E4" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,7 +2480,7 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2543,16 +2501,16 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
@@ -2560,20 +2518,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="54.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60"/>
+      <c r="A1" s="57"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
@@ -2592,7 +2550,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>29</v>
@@ -2614,147 +2572,147 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="46" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E4" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="46" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="72" t="s">
+      <c r="B5" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E5" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="46" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="72" t="s">
+      <c r="B6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="46" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="76" t="n">
+      <c r="F6" s="74"/>
+      <c r="G6" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="73" t="n">
         <v>0</v>
       </c>
       <c r="AMJ6" s="0"/>
@@ -2801,16 +2759,16 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
@@ -2822,19 +2780,19 @@
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" customFormat="false" ht="91.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="48" t="s">
@@ -2843,7 +2801,7 @@
       <c r="D2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="77" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="32" t="s">
@@ -2863,290 +2821,290 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C4" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D4" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="46" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E7" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89" t="s">
+      <c r="F7" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="B8" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E8" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89" t="s">
+      <c r="F8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="91" t="s">
+      <c r="B9" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E9" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="46" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89" t="s">
+      <c r="F9" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="91" t="s">
+      <c r="B10" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E10" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="96" t="s">
+      <c r="F10" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C11" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="91" t="s">
+      <c r="D11" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E11" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="88" t="n">
+      <c r="F11" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3170,22 +3128,22 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3196,10 +3154,13 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="109"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="43.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
@@ -3220,11 +3181,20 @@
       <c r="F2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="110" t="s">
-        <v>61</v>
+      <c r="G2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3322,9 +3292,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:G2"/>
+  <autoFilter ref="A2:H2"/>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
